--- a/GINX_TimeTable18H.xlsx
+++ b/GINX_TimeTable18H.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2480" yWindow="840" windowWidth="39780" windowHeight="26340" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="2480" yWindow="840" windowWidth="39780" windowHeight="26340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="GINF" sheetId="1" r:id="rId1"/>
@@ -1637,7 +1637,7 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2882900" cy="1765300"/>
+    <xdr:ext cx="2882900" cy="2565400"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="14" name="ZoneTexte 13"/>
@@ -1646,7 +1646,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9728200" y="2451100"/>
-          <a:ext cx="2882900" cy="1765300"/>
+          <a:ext cx="2882900" cy="2565400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1945,10 +1945,10 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>10582</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>213782</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2901950" cy="1716618"/>
+    <xdr:ext cx="2863850" cy="1716618"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="ZoneTexte 1"/>
@@ -1956,8 +1956,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9734550" y="2893482"/>
-          <a:ext cx="2901950" cy="1716618"/>
+          <a:off x="9734550" y="5471582"/>
+          <a:ext cx="2863850" cy="1716618"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2100,11 +2100,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>10582</xdr:colOff>
+      <xdr:colOff>10583</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2935817" cy="1758949"/>
+    <xdr:ext cx="2846918" cy="1758949"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="ZoneTexte 3"/>
@@ -2112,8 +2112,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1090082" y="7626350"/>
-          <a:ext cx="2935817" cy="1758949"/>
+          <a:off x="1090083" y="7626350"/>
+          <a:ext cx="2846918" cy="1758949"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2252,10 +2252,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2870200</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2882900" cy="1714499"/>
     <xdr:sp macro="" textlink="">
@@ -2265,7 +2265,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6832600" y="5486400"/>
+          <a:off x="12611100" y="2451100"/>
           <a:ext cx="2882900" cy="1714499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2406,7 +2406,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>349249</xdr:colOff>
+      <xdr:colOff>311149</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>10582</xdr:rowOff>
     </xdr:from>
@@ -2418,7 +2418,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1073149" y="2893482"/>
+          <a:off x="1035049" y="2893482"/>
           <a:ext cx="2863851" cy="1729317"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2712,11 +2712,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>2116</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>2116</xdr:rowOff>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>205317</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2931584" cy="1763183"/>
+    <xdr:ext cx="2908300" cy="1763184"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="16" name="ZoneTexte 15"/>
@@ -2724,8 +2724,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9730316" y="7634816"/>
-          <a:ext cx="2931584" cy="1763183"/>
+          <a:off x="9740900" y="7622117"/>
+          <a:ext cx="2908300" cy="1763184"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3163,12 +3163,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>16934</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>42334</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2878666" cy="1701799"/>
+    <xdr:ext cx="2840566" cy="1727200"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="22" name="ZoneTexte 21"/>
@@ -3176,8 +3176,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12628034" y="2463800"/>
-          <a:ext cx="2878666" cy="1701799"/>
+          <a:off x="9770534" y="2882900"/>
+          <a:ext cx="2840566" cy="1727200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3797,6 +3797,662 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G53"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" customWidth="1"/>
+    <col min="3" max="7" width="37.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="22">
+        <v>8</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="17"/>
+    </row>
+    <row r="3" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="23"/>
+      <c r="B3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
+    </row>
+    <row r="4" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="23"/>
+      <c r="B4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
+    </row>
+    <row r="5" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23"/>
+      <c r="B5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19"/>
+    </row>
+    <row r="6" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="22">
+        <v>9</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="23"/>
+      <c r="B7" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="23"/>
+      <c r="B8" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="24"/>
+      <c r="B9" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="22">
+        <v>10</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="23"/>
+      <c r="B11" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="23"/>
+      <c r="B12" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="24"/>
+      <c r="B13" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="22">
+        <v>11</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="23"/>
+      <c r="B15" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="23"/>
+      <c r="B16" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="24"/>
+      <c r="B17" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="22">
+        <v>12</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="23"/>
+      <c r="B19" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="23"/>
+      <c r="B20" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="24"/>
+      <c r="B21" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="22">
+        <v>13</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="23"/>
+      <c r="B23" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="23"/>
+      <c r="B24" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="24"/>
+      <c r="B25" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="22">
+        <v>14</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="23"/>
+      <c r="B27" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="23"/>
+      <c r="B28" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="24"/>
+      <c r="B29" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="22">
+        <v>15</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="23"/>
+      <c r="B31" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="23"/>
+      <c r="B32" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="24"/>
+      <c r="B33" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="22">
+        <v>16</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="23"/>
+      <c r="B35" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="23"/>
+      <c r="B36" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="24"/>
+      <c r="B37" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="22">
+        <v>17</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="23"/>
+      <c r="B39" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="23"/>
+      <c r="B40" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="19"/>
+    </row>
+    <row r="41" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="24"/>
+      <c r="B41" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="21"/>
+    </row>
+    <row r="42" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="22">
+        <v>18</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="17"/>
+    </row>
+    <row r="43" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="23"/>
+      <c r="B43" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="19"/>
+    </row>
+    <row r="44" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="23"/>
+      <c r="B44" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="19"/>
+    </row>
+    <row r="45" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="24"/>
+      <c r="B45" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="21"/>
+    </row>
+    <row r="46" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="22">
+        <v>19</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="17"/>
+    </row>
+    <row r="47" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="23"/>
+      <c r="B47" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="19"/>
+    </row>
+    <row r="48" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="23"/>
+      <c r="B48" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="19"/>
+    </row>
+    <row r="49" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="24"/>
+      <c r="B49" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="21"/>
+    </row>
+    <row r="50" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="22">
+        <v>20</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="17"/>
+    </row>
+    <row r="51" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="23"/>
+      <c r="B51" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="19"/>
+    </row>
+    <row r="52" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="23"/>
+      <c r="B52" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="19"/>
+    </row>
+    <row r="53" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="24"/>
+      <c r="B53" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G53"/>
+  <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3813,19 +4469,19 @@
       <c r="B1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="10" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4429,12 +5085,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A33"/>
@@ -4442,662 +5092,12 @@
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G53"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.5" customWidth="1"/>
-    <col min="2" max="2" width="4.6640625" customWidth="1"/>
-    <col min="3" max="7" width="37.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22">
-        <v>8</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="17"/>
-    </row>
-    <row r="3" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="23"/>
-      <c r="B3" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="19"/>
-    </row>
-    <row r="4" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="23"/>
-      <c r="B4" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="19"/>
-    </row>
-    <row r="5" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="19"/>
-    </row>
-    <row r="6" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="22">
-        <v>9</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="23"/>
-      <c r="B7" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="23"/>
-      <c r="B8" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
-      <c r="B9" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="22">
-        <v>10</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="23"/>
-      <c r="B11" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="23"/>
-      <c r="B12" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
-      <c r="B13" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="22">
-        <v>11</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="23"/>
-      <c r="B15" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="23"/>
-      <c r="B16" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
-      <c r="B17" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="22">
-        <v>12</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="23"/>
-      <c r="B19" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="23"/>
-      <c r="B20" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
-      <c r="B21" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="22">
-        <v>13</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="23"/>
-      <c r="B23" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="23"/>
-      <c r="B24" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="24"/>
-      <c r="B25" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="22">
-        <v>14</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="23"/>
-      <c r="B27" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="23"/>
-      <c r="B28" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="24"/>
-      <c r="B29" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="22">
-        <v>15</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="23"/>
-      <c r="B31" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="23"/>
-      <c r="B32" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="24"/>
-      <c r="B33" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="22">
-        <v>16</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="23"/>
-      <c r="B35" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="23"/>
-      <c r="B36" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="24"/>
-      <c r="B37" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="3"/>
-    </row>
-    <row r="38" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="22">
-        <v>17</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="23"/>
-      <c r="B39" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="2"/>
-    </row>
-    <row r="40" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="23"/>
-      <c r="B40" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="19"/>
-    </row>
-    <row r="41" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="24"/>
-      <c r="B41" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="21"/>
-    </row>
-    <row r="42" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="22">
-        <v>18</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="17"/>
-    </row>
-    <row r="43" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="23"/>
-      <c r="B43" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="19"/>
-    </row>
-    <row r="44" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="23"/>
-      <c r="B44" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="19"/>
-    </row>
-    <row r="45" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="24"/>
-      <c r="B45" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="21"/>
-    </row>
-    <row r="46" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="22">
-        <v>19</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="17"/>
-    </row>
-    <row r="47" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="23"/>
-      <c r="B47" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="19"/>
-    </row>
-    <row r="48" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="23"/>
-      <c r="B48" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="19"/>
-    </row>
-    <row r="49" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="24"/>
-      <c r="B49" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="21"/>
-    </row>
-    <row r="50" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="22">
-        <v>20</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="17"/>
-    </row>
-    <row r="51" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="23"/>
-      <c r="B51" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="19"/>
-    </row>
-    <row r="52" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="23"/>
-      <c r="B52" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="19"/>
-    </row>
-    <row r="53" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="24"/>
-      <c r="B53" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="21"/>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A46:A49"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/GINX_TimeTable18H.xlsx
+++ b/GINX_TimeTable18H.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2480" yWindow="840" windowWidth="39780" windowHeight="26340" tabRatio="500"/>
+    <workbookView xWindow="40" yWindow="640" windowWidth="25100" windowHeight="26380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="GINF" sheetId="1" r:id="rId1"/>
@@ -371,8 +371,8 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="1714500"/>
@@ -383,7 +383,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3975100" y="7645400"/>
+          <a:off x="3962400" y="8509000"/>
           <a:ext cx="2870200" cy="1714500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -532,10 +532,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="1701800"/>
     <xdr:sp macro="" textlink="">
@@ -545,7 +545,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9753600" y="7645400"/>
+          <a:off x="9702800" y="8496300"/>
           <a:ext cx="2870200" cy="1701800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -694,9 +694,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2870200</xdr:colOff>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2882900" cy="1765300"/>
@@ -707,7 +707,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3975100" y="2882900"/>
+          <a:off x="3949700" y="5041900"/>
           <a:ext cx="2882900" cy="1765300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -856,12 +856,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2870200" cy="2057400"/>
+    <xdr:ext cx="2870200" cy="2578100"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="ZoneTexte 6"/>
@@ -869,8 +869,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1079500" y="7683500"/>
-          <a:ext cx="2870200" cy="2057400"/>
+          <a:off x="1066800" y="8496300"/>
+          <a:ext cx="2870200" cy="2578100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1018,12 +1018,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2870200</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2870200" cy="2057400"/>
+    <xdr:ext cx="2870200" cy="2590800"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="8" name="ZoneTexte 7"/>
@@ -1031,8 +1031,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6832600" y="7683500"/>
-          <a:ext cx="2870200" cy="2057400"/>
+          <a:off x="6870700" y="8470900"/>
+          <a:ext cx="2870200" cy="2590800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1326,10 +1326,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2882900" cy="1727200"/>
     <xdr:sp macro="" textlink="">
@@ -1339,7 +1339,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1079500" y="6311900"/>
+          <a:off x="1054100" y="5029200"/>
           <a:ext cx="2882900" cy="1727200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1470,10 +1470,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2870200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2908300" cy="1727200"/>
     <xdr:sp macro="" textlink="">
@@ -1483,7 +1483,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12623800" y="2895600"/>
+          <a:off x="9715500" y="5041900"/>
           <a:ext cx="2908300" cy="1727200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1637,7 +1637,7 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2882900" cy="2565400"/>
+    <xdr:ext cx="2882900" cy="1727200"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="14" name="ZoneTexte 13"/>
@@ -1646,168 +1646,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9728200" y="2451100"/>
-          <a:ext cx="2882900" cy="2565400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFD7D6"/>
-        </a:solidFill>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> INF1049 - 2</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>TH1</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>TO - 3214 </a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Service à la clientèle</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>M. Ibghi</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-FR" sz="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2882900" cy="1727200"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="ZoneTexte 14"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6845300" y="6337300"/>
           <a:ext cx="2882900" cy="1727200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1845,6 +1683,168 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> INF1049 - 2</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TH1</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TO - 3214 </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Service à la clientèle</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>M. Ibghi</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2870200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2882900" cy="1727200"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="ZoneTexte 14"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6832600" y="5041900"/>
+          <a:ext cx="2882900" cy="1727200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFD7D6"/>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
             <a:rPr lang="fr-FR" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
@@ -1943,10 +1943,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>213782</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>10582</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2863850" cy="1716618"/>
     <xdr:sp macro="" textlink="">
@@ -1956,7 +1956,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9734550" y="5471582"/>
+          <a:off x="3968750" y="6779682"/>
           <a:ext cx="2863850" cy="1716618"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2053,7 +2053,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>TO - 3240 </a:t>
+            <a:t>TO - 3207 </a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100">
@@ -2101,8 +2101,8 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>10583</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2846918" cy="1758949"/>
     <xdr:sp macro="" textlink="">
@@ -2112,7 +2112,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1090083" y="7626350"/>
+          <a:off x="1090083" y="8947150"/>
           <a:ext cx="2846918" cy="1758949"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2252,10 +2252,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2882900" cy="1714499"/>
     <xdr:sp macro="" textlink="">
@@ -2265,7 +2265,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12611100" y="2451100"/>
+          <a:off x="6858000" y="6794500"/>
           <a:ext cx="2882900" cy="1714499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2405,10 +2405,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>311149</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>10582</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6349</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>213782</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2863851" cy="1729317"/>
     <xdr:sp macro="" textlink="">
@@ -2418,7 +2418,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1035049" y="2893482"/>
+          <a:off x="1085849" y="6766982"/>
           <a:ext cx="2863851" cy="1729317"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2558,10 +2558,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2878666</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>21166</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>8466</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>122766</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="2413001"/>
     <xdr:sp macro="" textlink="">
@@ -2571,7 +2571,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12594166" y="4402666"/>
+          <a:off x="3970866" y="9914466"/>
           <a:ext cx="2870200" cy="2413001"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2711,10 +2711,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>205317</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>14817</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2908300" cy="1763184"/>
     <xdr:sp macro="" textlink="">
@@ -2724,7 +2724,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9740900" y="7622117"/>
+          <a:off x="6845300" y="8942917"/>
           <a:ext cx="2908300" cy="1763184"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2864,9 +2864,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2116</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2872316</xdr:colOff>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>10582</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2880784" cy="1703917"/>
@@ -2877,7 +2877,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3964516" y="5484282"/>
+          <a:off x="3951816" y="5052482"/>
           <a:ext cx="2880784" cy="1703917"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3164,8 +3164,8 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>42334</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:colOff>16934</xdr:colOff>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2840566" cy="1727200"/>
@@ -3176,7 +3176,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9770534" y="2882900"/>
+          <a:off x="9745134" y="5041900"/>
           <a:ext cx="2840566" cy="1727200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3316,12 +3316,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2868084</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>14816</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>23284</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>40216</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2910416" cy="1712383"/>
+    <xdr:ext cx="2846916" cy="1712383"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="23" name="ZoneTexte 22"/>
@@ -3329,8 +3329,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3947584" y="2897716"/>
-          <a:ext cx="2910416" cy="1712383"/>
+          <a:off x="9751484" y="6809316"/>
+          <a:ext cx="2846916" cy="1712383"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4429,6 +4429,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A33"/>
@@ -4436,12 +4442,6 @@
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5085,6 +5085,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A33"/>
@@ -5092,12 +5098,6 @@
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/GINX_TimeTable18H.xlsx
+++ b/GINX_TimeTable18H.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="40" yWindow="640" windowWidth="25100" windowHeight="26380" tabRatio="500"/>
+    <workbookView xWindow="7900" yWindow="800" windowWidth="25100" windowHeight="26380" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GINF" sheetId="1" r:id="rId1"/>
@@ -371,8 +371,8 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="1714500"/>
@@ -383,7 +383,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3962400" y="8509000"/>
+          <a:off x="3975100" y="8077200"/>
           <a:ext cx="2870200" cy="1714500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -532,10 +532,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2857500</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="1701800"/>
     <xdr:sp macro="" textlink="">
@@ -545,7 +545,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9702800" y="8496300"/>
+          <a:off x="9740900" y="8077200"/>
           <a:ext cx="2870200" cy="1701800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1326,10 +1326,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2882900" cy="1727200"/>
     <xdr:sp macro="" textlink="">
@@ -1339,7 +1339,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1054100" y="5029200"/>
+          <a:off x="1092200" y="5054600"/>
           <a:ext cx="2882900" cy="1727200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1794,10 +1794,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2870200</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2882900" cy="1727200"/>
     <xdr:sp macro="" textlink="">
@@ -1807,7 +1807,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6832600" y="5041900"/>
+          <a:off x="6858000" y="5054600"/>
           <a:ext cx="2882900" cy="1727200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2255,7 +2255,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2882900" cy="1714499"/>
     <xdr:sp macro="" textlink="">
@@ -2265,7 +2265,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6858000" y="6794500"/>
+          <a:off x="6858000" y="6769100"/>
           <a:ext cx="2882900" cy="1714499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3797,6 +3797,662 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G53"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" customWidth="1"/>
+    <col min="3" max="7" width="37.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="22">
+        <v>8</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="17"/>
+    </row>
+    <row r="3" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="23"/>
+      <c r="B3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
+    </row>
+    <row r="4" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="23"/>
+      <c r="B4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
+    </row>
+    <row r="5" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23"/>
+      <c r="B5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19"/>
+    </row>
+    <row r="6" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="22">
+        <v>9</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="23"/>
+      <c r="B7" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="23"/>
+      <c r="B8" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="24"/>
+      <c r="B9" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="22">
+        <v>10</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="23"/>
+      <c r="B11" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="23"/>
+      <c r="B12" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="24"/>
+      <c r="B13" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="22">
+        <v>11</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="23"/>
+      <c r="B15" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="23"/>
+      <c r="B16" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="24"/>
+      <c r="B17" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="22">
+        <v>12</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="23"/>
+      <c r="B19" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="23"/>
+      <c r="B20" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="24"/>
+      <c r="B21" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="22">
+        <v>13</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="23"/>
+      <c r="B23" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="23"/>
+      <c r="B24" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="24"/>
+      <c r="B25" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="22">
+        <v>14</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="23"/>
+      <c r="B27" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="23"/>
+      <c r="B28" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="24"/>
+      <c r="B29" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="22">
+        <v>15</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="23"/>
+      <c r="B31" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="23"/>
+      <c r="B32" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="24"/>
+      <c r="B33" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="22">
+        <v>16</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="23"/>
+      <c r="B35" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="23"/>
+      <c r="B36" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="24"/>
+      <c r="B37" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="22">
+        <v>17</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="23"/>
+      <c r="B39" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="23"/>
+      <c r="B40" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="19"/>
+    </row>
+    <row r="41" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="24"/>
+      <c r="B41" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="21"/>
+    </row>
+    <row r="42" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="22">
+        <v>18</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="17"/>
+    </row>
+    <row r="43" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="23"/>
+      <c r="B43" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="19"/>
+    </row>
+    <row r="44" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="23"/>
+      <c r="B44" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="19"/>
+    </row>
+    <row r="45" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="24"/>
+      <c r="B45" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="21"/>
+    </row>
+    <row r="46" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="22">
+        <v>19</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="17"/>
+    </row>
+    <row r="47" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="23"/>
+      <c r="B47" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="19"/>
+    </row>
+    <row r="48" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="23"/>
+      <c r="B48" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="19"/>
+    </row>
+    <row r="49" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="24"/>
+      <c r="B49" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="21"/>
+    </row>
+    <row r="50" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="22">
+        <v>20</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="17"/>
+    </row>
+    <row r="51" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="23"/>
+      <c r="B51" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="19"/>
+    </row>
+    <row r="52" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="23"/>
+      <c r="B52" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="19"/>
+    </row>
+    <row r="53" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="24"/>
+      <c r="B53" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G53"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3813,19 +4469,19 @@
       <c r="B1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="10" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4429,12 +5085,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A33"/>
@@ -4442,662 +5092,12 @@
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G53"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.5" customWidth="1"/>
-    <col min="2" max="2" width="4.6640625" customWidth="1"/>
-    <col min="3" max="7" width="37.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22">
-        <v>8</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="17"/>
-    </row>
-    <row r="3" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="23"/>
-      <c r="B3" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="19"/>
-    </row>
-    <row r="4" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="23"/>
-      <c r="B4" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="19"/>
-    </row>
-    <row r="5" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="19"/>
-    </row>
-    <row r="6" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="22">
-        <v>9</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="23"/>
-      <c r="B7" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="23"/>
-      <c r="B8" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
-      <c r="B9" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="22">
-        <v>10</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="23"/>
-      <c r="B11" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="23"/>
-      <c r="B12" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
-      <c r="B13" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="22">
-        <v>11</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="23"/>
-      <c r="B15" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="23"/>
-      <c r="B16" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
-      <c r="B17" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="22">
-        <v>12</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="23"/>
-      <c r="B19" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="23"/>
-      <c r="B20" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
-      <c r="B21" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="22">
-        <v>13</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="23"/>
-      <c r="B23" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="23"/>
-      <c r="B24" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="24"/>
-      <c r="B25" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="22">
-        <v>14</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="23"/>
-      <c r="B27" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="23"/>
-      <c r="B28" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="24"/>
-      <c r="B29" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="22">
-        <v>15</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="23"/>
-      <c r="B31" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="23"/>
-      <c r="B32" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="24"/>
-      <c r="B33" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="22">
-        <v>16</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="23"/>
-      <c r="B35" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="23"/>
-      <c r="B36" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="24"/>
-      <c r="B37" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="3"/>
-    </row>
-    <row r="38" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="22">
-        <v>17</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="23"/>
-      <c r="B39" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="2"/>
-    </row>
-    <row r="40" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="23"/>
-      <c r="B40" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="19"/>
-    </row>
-    <row r="41" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="24"/>
-      <c r="B41" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="21"/>
-    </row>
-    <row r="42" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="22">
-        <v>18</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="17"/>
-    </row>
-    <row r="43" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="23"/>
-      <c r="B43" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="19"/>
-    </row>
-    <row r="44" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="23"/>
-      <c r="B44" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="19"/>
-    </row>
-    <row r="45" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="24"/>
-      <c r="B45" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="21"/>
-    </row>
-    <row r="46" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="22">
-        <v>19</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="17"/>
-    </row>
-    <row r="47" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="23"/>
-      <c r="B47" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="19"/>
-    </row>
-    <row r="48" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="23"/>
-      <c r="B48" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="19"/>
-    </row>
-    <row r="49" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="24"/>
-      <c r="B49" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="21"/>
-    </row>
-    <row r="50" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="22">
-        <v>20</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="17"/>
-    </row>
-    <row r="51" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="23"/>
-      <c r="B51" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="19"/>
-    </row>
-    <row r="52" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="23"/>
-      <c r="B52" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="19"/>
-    </row>
-    <row r="53" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="24"/>
-      <c r="B53" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="21"/>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A46:A49"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
